--- a/src/ExcelsiorSyncfusion.Tests/SplitterTests.NestedColumn.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/SplitterTests.NestedColumn.verified.xlsx
@@ -149,7 +149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/SplitterTests.NestedColumn.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/SplitterTests.NestedColumn.verified.xlsx
@@ -137,8 +137,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -149,7 +149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5">
+    <row r="2" spans="1:2" ht="42.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
